--- a/biology/Zoologie/Cavariella/Cavariella.xlsx
+++ b/biology/Zoologie/Cavariella/Cavariella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cavariella est un genre d'insectes de la famille des Aphididae. Il s'agit à proprement parler d'un genre de pucerons, appartenant donc à l'ordre des hémiptères et au sous ordres des Sternorrhyncha.
-Ce genre se distingue morphologiquement par l'existence d'une codicule sur la partie terminale de l'abdomen. Cette codicule est généralement munie de deux poils fins qui permettent de la localise et de la distinguer de la vraie cauda[2].
+Ce genre se distingue morphologiquement par l'existence d'une codicule sur la partie terminale de l'abdomen. Cette codicule est généralement munie de deux poils fins qui permettent de la localise et de la distinguer de la vraie cauda.
 Plusieurs espèces sont communes en Europe et notamment le puceron de la carotte, Cavariella aegopodii.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (4 mars 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (4 mars 2021) :
 sous-genre Cavaraiellia
 Cavariella aquatica (Gillette &amp; Bragg, 1916)
 sous-genre Cavariella
